--- a/dlr.xlsx
+++ b/dlr.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
   <si>
     <t>Select Report Level</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>IBM China ISSC(641-SSC)</t>
+  </si>
+  <si>
+    <t>210143,</t>
   </si>
 </sst>
 </file>
@@ -740,20 +743,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.140625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
@@ -830,9 +833,42 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7">
+        <v>42667</v>
+      </c>
+      <c r="D3" s="7">
+        <v>43019</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D2">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D3">
       <formula1>40179</formula1>
       <formula2>72686</formula2>
     </dataValidation>
@@ -846,31 +882,31 @@
           <x14:formula1>
             <xm:f>parameter!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>A2</xm:sqref>
+          <xm:sqref>A2:A3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>parameter!$F$1:$F$15</xm:f>
           </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
+          <xm:sqref>E2:E3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>parameter!$H$1:$H$13</xm:f>
           </x14:formula1>
-          <xm:sqref>F2</xm:sqref>
+          <xm:sqref>F2:F3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>parameter!$J$1:$J$2</xm:f>
           </x14:formula1>
-          <xm:sqref>G2</xm:sqref>
+          <xm:sqref>G2:G3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>parameter!$D$1:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
+          <xm:sqref>B2:B3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -883,7 +919,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
